--- a/wallets.xlsx
+++ b/wallets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kopte\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kopte\Desktop\Projects\Python\FaucetStoryHack_v0.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{125F173C-2A8D-42B7-8D89-895BDAD4B750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED8AD1D-86FE-4369-8E77-3AC81BB5756D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30045" yWindow="3600" windowWidth="19140" windowHeight="17805" xr2:uid="{9CEF5365-71BB-47E3-B84C-F1FCD0A4A8FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9CEF5365-71BB-47E3-B84C-F1FCD0A4A8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>public_key</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>your comment (optional)</t>
+  </si>
+  <si>
+    <t>proxy</t>
   </si>
 </sst>
 </file>
@@ -451,26 +454,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8140B4B9-06D7-44F5-9FCF-481537173625}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
